--- a/data-raw/unhcr_2022/iati_budget.xlsx
+++ b/data-raw/unhcr_2022/iati_budget.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022</t>
+          <t>XM-DAC-41121-2022-AME-ARGMCO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -437,14 +437,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12000000</t>
+          <t>49164002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-ARGMCO</t>
+          <t>XM-DAC-41121-2022-AME-BRA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,14 +479,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>49164002</t>
+          <t>52473361</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-BRA</t>
+          <t>XM-DAC-41121-2022-AME-CAN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>52473361</t>
+          <t>2743877</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-CAN</t>
+          <t>XM-DAC-41121-2022-AME-COL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,14 +563,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2743877</t>
+          <t>122071446</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-COL</t>
+          <t>XM-DAC-41121-2022-AME-CRI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -605,29 +605,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>122071446</t>
+          <t>33902019</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-CRI</t>
+          <t>XM-DAC-41121-2022-AME-ECU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -637,19 +642,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76108305</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-CRI</t>
+          <t>XM-DAC-41121-2022-AME-GTM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -684,29 +689,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>33902019</t>
+          <t>42474637</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-CRI</t>
+          <t>XM-DAC-41121-2022-AME-HND</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -716,19 +726,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28639888</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-ECU</t>
+          <t>XM-DAC-41121-2022-AME-MEX</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -763,14 +773,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>76108305</t>
+          <t>96603414</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-GTM</t>
+          <t>XM-DAC-41121-2022-AME-PANMCO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -805,14 +815,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>42474637</t>
+          <t>54305964</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-HND</t>
+          <t>XM-DAC-41121-2022-AME-PER</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -847,29 +857,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>28639888</t>
+          <t>61114925</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-MEX</t>
+          <t>XM-DAC-41121-2022-AME-RA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -879,34 +894,39 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10513217</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-MEX</t>
+          <t>XM-DAC-41121-2022-AME-RB</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -916,19 +936,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21311867</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-MEX</t>
+          <t>XM-DAC-41121-2022-AME-SLV</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -963,14 +983,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>96603414</t>
+          <t>23607227</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-PANMCO</t>
+          <t>XM-DAC-41121-2022-AME-USAMCO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1005,14 +1025,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>54305964</t>
+          <t>43390422</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-PER</t>
+          <t>XM-DAC-41121-2022-AME-VEN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1047,14 +1067,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>61114925</t>
+          <t>61158689</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-RA</t>
+          <t>XM-DAC-41121-2022-ASO-AFG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1089,14 +1109,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10513217</t>
+          <t>340345679</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-RB</t>
+          <t>XM-DAC-41121-2022-ASO-AUSMCO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1131,14 +1151,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>21311867</t>
+          <t>4642129</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-SLV</t>
+          <t>XM-DAC-41121-2022-ASO-BGD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1173,14 +1193,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23607227</t>
+          <t>285027476</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-USAMCO</t>
+          <t>XM-DAC-41121-2022-ASO-CHN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1215,29 +1235,34 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>43390422</t>
+          <t>4465086</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-VEN</t>
+          <t>XM-DAC-41121-2022-ASO-IDN</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1247,34 +1272,39 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12402277</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-VEN</t>
+          <t>XM-DAC-41121-2022-ASO-IND</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1284,34 +1314,39 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17217175</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-VEN</t>
+          <t>XM-DAC-41121-2022-ASO-IRN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1321,19 +1356,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>119394266</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-VEN</t>
+          <t>XM-DAC-41121-2022-ASO-JPN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1368,14 +1403,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>61158689</t>
+          <t>4130706</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-AFG</t>
+          <t>XM-DAC-41121-2022-ASO-KAZMCO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1410,29 +1445,34 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>340345679</t>
+          <t>8751400</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-AFG</t>
+          <t>XM-DAC-41121-2022-ASO-KOR</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1442,34 +1482,39 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2307912</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-AFG</t>
+          <t>XM-DAC-41121-2022-ASO-LKA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1479,19 +1524,19 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3349793</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-AUSMCO</t>
+          <t>XM-DAC-41121-2022-ASO-MMR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1526,14 +1571,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4642129</t>
+          <t>56767533</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-BGD</t>
+          <t>XM-DAC-41121-2022-ASO-MYS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1568,29 +1613,34 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>285085743</t>
+          <t>22315096</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-CHN</t>
+          <t>XM-DAC-41121-2022-ASO-NPL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1600,34 +1650,39 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4122047</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-CHN</t>
+          <t>XM-DAC-41121-2022-ASO-PAK</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1637,34 +1692,39 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>143446834</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-CHN</t>
+          <t>XM-DAC-41121-2022-ASO-PHL</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1674,19 +1734,19 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3681264</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-CHN</t>
+          <t>XM-DAC-41121-2022-ASO-RA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1721,14 +1781,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>4465086</t>
+          <t>8096660</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IDN</t>
+          <t>XM-DAC-41121-2022-ASO-RB</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1763,14 +1823,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>12475111</t>
+          <t>15498560</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IND</t>
+          <t>XM-DAC-41121-2022-ASO-THAMCO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1805,29 +1865,34 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14217175</t>
+          <t>24840862</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IRN</t>
+          <t>XM-DAC-41121-2022-ASO-TJK</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1837,34 +1902,39 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10800920</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IRN</t>
+          <t>XM-DAC-41121-2022-EHGL-BDI</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1874,19 +1944,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80539137</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IRN</t>
+          <t>XM-DAC-41121-2022-EHGL-DJI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1921,29 +1991,34 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>119394266</t>
+          <t>18242296</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-JPN</t>
+          <t>XM-DAC-41121-2022-EHGL-ERI</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1953,34 +2028,39 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6211741</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-JPN</t>
+          <t>XM-DAC-41121-2022-EHGL-ETH</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1990,19 +2070,19 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>335264806</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-JPN</t>
+          <t>XM-DAC-41121-2022-EHGL-KEN</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2037,29 +2117,34 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>4130706</t>
+          <t>145519917</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-KAZMCO</t>
+          <t>XM-DAC-41121-2022-EHGL-OO</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2069,19 +2154,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2526765</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-KAZMCO</t>
+          <t>XM-DAC-41121-2022-EHGL-RA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2116,29 +2201,34 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>8751400</t>
+          <t>6349670</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-KAZMCO</t>
+          <t>XM-DAC-41121-2022-EHGL-RB</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2148,19 +2238,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19605692</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-KOR</t>
+          <t>XM-DAC-41121-2022-EHGL-RWA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2195,14 +2285,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2307912</t>
+          <t>86786066</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-LKA</t>
+          <t>XM-DAC-41121-2022-EHGL-SDN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2237,29 +2327,34 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3349793</t>
+          <t>348894360</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-MMR</t>
+          <t>XM-DAC-41121-2022-EHGL-SOM</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2269,19 +2364,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>157496129</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-MMR</t>
+          <t>XM-DAC-41121-2022-EHGL-SSD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2316,29 +2411,34 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>56699348</t>
+          <t>214826162</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-MMR</t>
+          <t>XM-DAC-41121-2022-EHGL-TZA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2348,19 +2448,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>114529848</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-MYS</t>
+          <t>XM-DAC-41121-2022-EHGL-UGA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2395,14 +2495,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>22315096</t>
+          <t>343392999</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-NPL</t>
+          <t>XM-DAC-41121-2022-EUR-ALB</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2437,29 +2537,34 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>4122047</t>
+          <t>3500000</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-PAK</t>
+          <t>XM-DAC-41121-2022-EUR-ARM</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2469,19 +2574,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13791261</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-PAK</t>
+          <t>XM-DAC-41121-2022-EUR-AZE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2516,29 +2621,34 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>129020475</t>
+          <t>7802477</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-PAK</t>
+          <t>XM-DAC-41121-2022-EUR-BELMCO</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2548,19 +2658,19 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11405879</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-PHL</t>
+          <t>XM-DAC-41121-2022-EUR-BGR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2595,14 +2705,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3636594</t>
+          <t>20161499</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-RA</t>
+          <t>XM-DAC-41121-2022-EUR-BIH</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2637,14 +2747,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>16092801</t>
+          <t>10531924</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-RB</t>
+          <t>XM-DAC-41121-2022-EUR-CYP</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2679,29 +2789,34 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>14935533</t>
+          <t>3187063</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-THAMCO</t>
+          <t>XM-DAC-41121-2022-EUR-DEU</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2711,34 +2826,39 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2537076</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-THAMCO</t>
+          <t>XM-DAC-41121-2022-EUR-ESP</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2748,34 +2868,39 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5794208</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-THAMCO</t>
+          <t>XM-DAC-41121-2022-EUR-FRA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2785,19 +2910,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4504891</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-THAMCO</t>
+          <t>XM-DAC-41121-2022-EUR-GBR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2832,29 +2957,34 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>24840862</t>
+          <t>2593097</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-THAMCO</t>
+          <t>XM-DAC-41121-2022-EUR-GEO</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2864,34 +2994,39 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6936022</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-TJK</t>
+          <t>XM-DAC-41121-2022-EUR-GRC</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2901,34 +3036,39 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>61499999</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-TJK</t>
+          <t>XM-DAC-41121-2022-EUR-HRV</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2938,19 +3078,19 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2117213</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-TJK</t>
+          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2985,14 +3125,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>10800920</t>
+          <t>217309939</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-BDI</t>
+          <t>XM-DAC-41121-2022-EUR-ITAMCO</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3027,14 +3167,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>80539137</t>
+          <t>21951803</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-DJI</t>
+          <t>XM-DAC-41121-2022-EUR-KOS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3069,14 +3209,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>18242296</t>
+          <t>3359603</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-ERI</t>
+          <t>XM-DAC-41121-2022-EUR-MKD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3111,14 +3251,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>6211741</t>
+          <t>3498700</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-ETH</t>
+          <t>XM-DAC-41121-2022-EUR-MLT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3153,29 +3293,34 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>335264806</t>
+          <t>1879908</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-ETH</t>
+          <t>XM-DAC-41121-2022-EUR-MNE</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3185,34 +3330,39 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2563952</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-ETH</t>
+          <t>XM-DAC-41121-2022-EUR-OO</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3222,19 +3372,19 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5260785</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-KEN</t>
+          <t>XM-DAC-41121-2022-EUR-POL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3269,14 +3419,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>145519917</t>
+          <t>211241244</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-OO</t>
+          <t>XM-DAC-41121-2022-EUR-RA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3311,14 +3461,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2526765</t>
+          <t>94858778</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-RA</t>
+          <t>XM-DAC-41121-2022-EUR-RB</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3353,14 +3503,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>7649670</t>
+          <t>21368164</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-RB</t>
+          <t>XM-DAC-41121-2022-EUR-ROU</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3395,14 +3545,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>18305692</t>
+          <t>147411912</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-RWA</t>
+          <t>XM-DAC-41121-2022-EUR-RUS</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3437,14 +3587,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>86786066</t>
+          <t>4654645</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-SDN</t>
+          <t>XM-DAC-41121-2022-EUR-SRB</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3479,14 +3629,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>348894360</t>
+          <t>9621010</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-SOM</t>
+          <t>XM-DAC-41121-2022-EUR-SWEMCO</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3521,14 +3671,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>157496129</t>
+          <t>11571040</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-SSD</t>
+          <t>XM-DAC-41121-2022-EUR-TUR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3563,14 +3713,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>214826162</t>
+          <t>349369846</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-TZA</t>
+          <t>XM-DAC-41121-2022-EUR-UKR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3605,14 +3755,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>114529848</t>
+          <t>729300000</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-UGA</t>
+          <t>XM-DAC-41121-2022-GLOBALPROG</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3647,14 +3797,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>343392999</t>
+          <t>540059859</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ALB</t>
+          <t>XM-DAC-41121-2022-HQ</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3689,19 +3839,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>3500000</t>
+          <t>238238951</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ARM</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>XM-DAC-41121-2022-JPO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3731,14 +3876,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>12691261</t>
+          <t>12000000</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-AZE</t>
+          <t>XM-DAC-41121-2022-MENA-DZA</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3773,14 +3918,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>7202477</t>
+          <t>44871697</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-BELMCO</t>
+          <t>XM-DAC-41121-2022-MENA-EGY</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3815,14 +3960,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>11080879</t>
+          <t>125989649</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-BGR</t>
+          <t>XM-DAC-41121-2022-MENA-ESH</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3857,14 +4002,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>11943238</t>
+          <t>4105620</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-BIH</t>
+          <t>XM-DAC-41121-2022-MENA-IRQ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3899,14 +4044,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>10281924</t>
+          <t>347358668</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-CYP</t>
+          <t>XM-DAC-41121-2022-MENA-ISR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3941,14 +4086,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2887063</t>
+          <t>7541938</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-DEU</t>
+          <t>XM-DAC-41121-2022-MENA-JOR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3983,14 +4128,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2537076</t>
+          <t>408378182</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ESP</t>
+          <t>XM-DAC-41121-2022-MENA-LBN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4025,14 +4170,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>5394208</t>
+          <t>534326135</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-FRA</t>
+          <t>XM-DAC-41121-2022-MENA-LBY</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4067,14 +4212,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3866795</t>
+          <t>70000000</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-GBR</t>
+          <t>XM-DAC-41121-2022-MENA-MAR</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4109,14 +4254,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2593097</t>
+          <t>9500000</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-GEO</t>
+          <t>XM-DAC-41121-2022-MENA-MRT</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4151,14 +4296,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>5836022</t>
+          <t>30895804</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-GRC</t>
+          <t>XM-DAC-41121-2022-MENA-OO</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4193,14 +4338,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>59999999</t>
+          <t>20439950</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-HRV</t>
+          <t>XM-DAC-41121-2022-MENA-RA</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4235,14 +4380,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1792213</t>
+          <t>30000000</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
+          <t>XM-DAC-41121-2022-MENA-RB</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4277,14 +4422,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>92252823</t>
+          <t>22547020</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ITAMCO</t>
+          <t>XM-DAC-41121-2022-MENA-SAUMCO</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4319,14 +4464,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>18951803</t>
+          <t>11664427</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-KOS</t>
+          <t>XM-DAC-41121-2022-MENA-SYR</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4361,29 +4506,34 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3359603</t>
+          <t>465210516</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MKD</t>
+          <t>XM-DAC-41121-2022-MENA-TUN</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4393,34 +4543,39 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8510520</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MKD</t>
+          <t>XM-DAC-41121-2022-MENA-YEM</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4430,34 +4585,39 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>291330246</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MKD</t>
+          <t>XM-DAC-41121-2022-SA-AGO</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4467,19 +4627,19 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29889167</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MKD</t>
+          <t>XM-DAC-41121-2022-SA-COD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4514,14 +4674,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>3498700</t>
+          <t>225420989</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MLT</t>
+          <t>XM-DAC-41121-2022-SA-COG</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4556,14 +4716,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1879908</t>
+          <t>37405548</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MNE</t>
+          <t>XM-DAC-41121-2022-SA-MOZ</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4598,14 +4758,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2238952</t>
+          <t>36673966</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-OO</t>
+          <t>XM-DAC-41121-2022-SA-MWI</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4640,14 +4800,14 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>5190785</t>
+          <t>22589021</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-POL</t>
+          <t>XM-DAC-41121-2022-SA-RA</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4682,14 +4842,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>101311331</t>
+          <t>4418946</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RA</t>
+          <t>XM-DAC-41121-2022-SA-RB</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4724,14 +4884,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>13207164</t>
+          <t>12383539</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RB</t>
+          <t>XM-DAC-41121-2022-SA-ZAFMCO</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4766,14 +4926,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>15756402</t>
+          <t>32853220</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ROU</t>
+          <t>XM-DAC-41121-2022-SA-ZMB</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4808,14 +4968,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>32469287</t>
+          <t>24446648</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RUS</t>
+          <t>XM-DAC-41121-2022-SA-ZWE</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4850,29 +5010,34 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>3801001</t>
+          <t>10427348</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SRB</t>
+          <t>XM-DAC-41121-2022-WCA-BFA</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4882,34 +5047,39 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>109882557</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SRB</t>
+          <t>XM-DAC-41121-2022-WCA-CAF</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4919,19 +5089,19 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>79600000</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SRB</t>
+          <t>XM-DAC-41121-2022-WCA-CIV</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4966,29 +5136,34 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>9296010</t>
+          <t>22995028</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SWEMCO</t>
+          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4998,34 +5173,39 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>153656819</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SWEMCO</t>
+          <t>XM-DAC-41121-2022-WCA-GHA</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5035,34 +5215,39 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6985148</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SWEMCO</t>
+          <t>XM-DAC-41121-2022-WCA-LBR</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5072,34 +5257,39 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15477395</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SWEMCO</t>
+          <t>XM-DAC-41121-2022-WCA-MLI</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5109,19 +5299,19 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66409511</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SWEMCO</t>
+          <t>XM-DAC-41121-2022-WCA-NER</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5156,14 +5346,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>14571040</t>
+          <t>130695579</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-TUR</t>
+          <t>XM-DAC-41121-2022-WCA-NGA</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5198,14 +5388,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>349369846</t>
+          <t>98239376</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-UKR</t>
+          <t>XM-DAC-41121-2022-WCA-RA</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5240,14 +5430,14 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>292500000</t>
+          <t>5034130</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-GLOBALPROG</t>
+          <t>XM-DAC-41121-2022-WCA-RB</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5282,14 +5472,14 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>521488874</t>
+          <t>17251604</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-HQ</t>
+          <t>XM-DAC-41121-2022-WCA-SENMCO</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5324,29 +5514,34 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>240109894</t>
+          <t>17486176</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-DZA</t>
+          <t>XM-DAC-41121-2022-WCA-TCD</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5356,2506 +5551,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-DZA</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-DZA</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>44871697</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-EGY</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>125989649</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-ESH</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>4105620</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-IRQ</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>347358668</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-IRQ</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-IRQ</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-ISR</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>7541938</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-JOR</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>408378182</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-LBN</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>534326135</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-LBY</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>70000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-MAR</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>9500000</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-MRT</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>30895804</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-OO</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>20439950</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-RA</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>30000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-RB</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>22547020</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-SAUMCO</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>11664427</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-SYR</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>465210516</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-TUN</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>8510520</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-MENA-YEM</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>291330246</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-AGO</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>29889167</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-COD</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-COD</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>2026-12-31</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-COD</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>225420989</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-COD</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-COD</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-COG</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>37405548</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-COG</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-COG</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-MOZ</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>36673966</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-MWI</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>22589021</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-RA</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>4418946</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-RB</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>12383539</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-ZAFMCO</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>32853220</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-ZAFMCO</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-ZAFMCO</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-ZMB</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-ZMB</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>24446648</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-ZMB</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-SA-ZWE</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>10427348</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-BFA</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-BFA</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>109882557</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-BFA</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-BFA</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-CAF</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>80000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-CIV</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>21095028</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>2026-12-31</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>154256819</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-GHA</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>6985148</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-LBR</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>15477395</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-MLI</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>66409511</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-NER</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>130695579</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-NGA</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>98239376</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-RA</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>4354130</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-RB</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>16554863</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-SENMCO</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>19386176</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-TCD</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>160729641</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-TCD</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>XM-DAC-41121-2022-WCA-TCD</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>160352900</t>
         </is>
       </c>
     </row>
